--- a/data/dataTest.xlsx
+++ b/data/dataTest.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\auto\workspaceAuto\Automatixa\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\auto\workspaceAuto\TestFramework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B63F0-91B9-4E6C-AE76-06F72D35F231}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD094CAB-59FD-4643-969B-BD5424F66E64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="134">
   <si>
     <t>CODCP</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>BROWSER</t>
+  </si>
+  <si>
+    <t>CHROME</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -522,7 +531,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -835,13 +844,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH32"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="39.33203125" collapsed="true"/>
     <col min="2" max="2" style="1" width="11.44140625" collapsed="true"/>
@@ -851,15 +860,16 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="1" width="37.44140625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="1" width="18.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="18.5546875" collapsed="true"/>
-    <col min="10" max="11" style="1" width="11.44140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" style="1" width="18.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="15" max="32" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="33" max="33" style="1" width="11.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="1" width="18.5546875" collapsed="true"/>
+    <col min="11" max="12" style="1" width="11.44140625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" style="1" width="18.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="16" max="33" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="34" max="34" style="1" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -885,85 +895,88 @@
         <v>41</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -985,78 +998,81 @@
       <c r="H2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AH2" t="s">
-        <v>130</v>
+      <c r="AI2" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -1079,72 +1095,73 @@
         <v>53</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1" t="s">
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1167,72 +1184,73 @@
         <v>74</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -1255,72 +1273,73 @@
         <v>75</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1" t="s">
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -1343,72 +1362,73 @@
         <v>76</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1" t="s">
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -1431,72 +1451,73 @@
         <v>77</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1" t="s">
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1519,72 +1540,73 @@
         <v>78</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="1" t="s">
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1607,72 +1629,73 @@
         <v>79</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1" t="s">
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1695,72 +1718,73 @@
         <v>80</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1" t="s">
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -1783,72 +1807,73 @@
         <v>96</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1" t="s">
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1871,69 +1896,70 @@
         <v>42</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -1956,15 +1982,15 @@
         <v>91</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="2"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1983,11 +2009,12 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1" t="s">
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -2010,15 +2037,15 @@
         <v>53</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2037,11 +2064,12 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1" t="s">
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -2064,15 +2092,15 @@
         <v>74</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="5"/>
+      <c r="K15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2091,11 +2119,12 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1" t="s">
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -2118,15 +2147,15 @@
         <v>75</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="2"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2145,11 +2174,12 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1" t="s">
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -2172,15 +2202,15 @@
         <v>76</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="2"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2199,11 +2229,12 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1" t="s">
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2226,15 +2257,15 @@
         <v>77</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="5"/>
+      <c r="K18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="2"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2253,11 +2284,12 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1" t="s">
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -2280,15 +2312,15 @@
         <v>78</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="1"/>
+      <c r="N19" s="2"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2307,11 +2339,12 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1" t="s">
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -2334,15 +2367,15 @@
         <v>79</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="5"/>
+      <c r="K20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2361,11 +2394,12 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="1" t="s">
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -2388,15 +2422,15 @@
         <v>80</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="5"/>
+      <c r="K21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="2"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2415,11 +2449,12 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1" t="s">
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2442,15 +2477,15 @@
         <v>96</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="5"/>
+      <c r="K22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2469,11 +2504,12 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1" t="s">
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2496,29 +2532,30 @@
         <v>91</v>
       </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="10"/>
+      <c r="K23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>98</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>110</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>112</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>114</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AH23" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -2541,29 +2578,30 @@
         <v>53</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="5"/>
+      <c r="K24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>98</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>110</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>112</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>114</v>
       </c>
-      <c r="AG24" s="1" t="s">
+      <c r="AH24" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
@@ -2586,29 +2624,30 @@
         <v>74</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="5"/>
+      <c r="K25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>98</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>110</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>112</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>114</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="AH25" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -2631,29 +2670,30 @@
         <v>75</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="5"/>
+      <c r="K26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>98</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>110</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>112</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>114</v>
       </c>
-      <c r="AG26" s="1" t="s">
+      <c r="AH26" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -2676,29 +2716,30 @@
         <v>76</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="5"/>
+      <c r="K27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>98</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>112</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>114</v>
       </c>
-      <c r="AG27" s="1" t="s">
+      <c r="AH27" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -2721,29 +2762,30 @@
         <v>77</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="5"/>
+      <c r="K28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>98</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>110</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>112</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>114</v>
       </c>
-      <c r="AG28" s="1" t="s">
+      <c r="AH28" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -2766,29 +2808,30 @@
         <v>78</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="5"/>
+      <c r="K29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>98</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>110</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>112</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>114</v>
       </c>
-      <c r="AG29" s="1" t="s">
+      <c r="AH29" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
@@ -2811,29 +2854,30 @@
         <v>79</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="5"/>
+      <c r="K30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>98</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>110</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>112</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>114</v>
       </c>
-      <c r="AG30" s="1" t="s">
+      <c r="AH30" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -2856,29 +2900,30 @@
         <v>80</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="5"/>
+      <c r="K31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>98</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>110</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AF31" t="s">
         <v>112</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>114</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>108</v>
       </c>
@@ -2901,25 +2946,26 @@
         <v>96</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="5"/>
+      <c r="K32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>98</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>110</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>112</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>114</v>
       </c>
-      <c r="AG32" s="1" t="s">
+      <c r="AH32" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2935,6 +2981,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005BBDBF06F7BC974CBB85AC25FE00AFB5" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6a69697652624632dc096f01c805c491">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b2b1fa7a59e354d7f595b7732424404">
     <xsd:element name="properties">
@@ -3048,32 +3109,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FB17FC-A2B4-4B02-BF51-36A1DCC1E90B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0894F575-CBD1-4500-A28A-2C2DF44A3F5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -3088,9 +3127,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0894F575-CBD1-4500-A28A-2C2DF44A3F5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FB17FC-A2B4-4B02-BF51-36A1DCC1E90B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/data/dataTest.xlsx
+++ b/data/dataTest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="135">
   <si>
     <t>CODCP</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -860,7 +863,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="1" width="37.44140625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="1" width="18.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="18.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.5546875" collapsed="true"/>
     <col min="10" max="10" customWidth="true" style="1" width="18.5546875" collapsed="true"/>
     <col min="11" max="12" style="1" width="11.44140625" collapsed="true"/>
     <col min="13" max="14" customWidth="true" style="1" width="18.33203125" collapsed="true"/>
@@ -1069,7 +1072,7 @@
         <v>124</v>
       </c>
       <c r="AI2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">

--- a/data/dataTest.xlsx
+++ b/data/dataTest.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\auto\workspaceAuto\TestFramework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Framework\TestFramework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD094CAB-59FD-4643-969B-BD5424F66E64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4CFDD1-4F3B-4E28-821F-FE17D7321D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="133">
   <si>
     <t>CODCP</t>
   </si>
@@ -417,16 +417,10 @@
     <t>Temperatura en Lima</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>BROWSER</t>
   </si>
   <si>
     <t>CHROME</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>16</t>
@@ -436,7 +430,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,11 +513,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -534,7 +526,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,7 +543,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -850,146 +842,144 @@
   <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="39.33203125" collapsed="true"/>
-    <col min="2" max="2" style="1" width="11.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="23.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="25.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="37.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="18.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="18.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="18.5546875" collapsed="true"/>
-    <col min="11" max="12" style="1" width="11.44140625" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" style="1" width="18.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="16" max="33" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="34" max="34" style="1" width="11.44140625" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="18.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="11.42578125" style="1" collapsed="1"/>
+    <col min="13" max="14" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="33" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.42578125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -998,16 +988,16 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1072,20 +1062,20 @@
         <v>124</v>
       </c>
       <c r="AI2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1094,12 +1084,12 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1164,17 +1154,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1183,12 +1173,12 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1253,17 +1243,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1272,12 +1262,12 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1342,17 +1332,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1361,12 +1351,12 @@
       <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1431,17 +1421,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1450,12 +1440,12 @@
       <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1520,17 +1510,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1539,12 +1529,12 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1609,17 +1599,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1628,12 +1618,12 @@
       <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -1698,17 +1688,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1717,12 +1707,12 @@
       <c r="F10" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1787,17 +1777,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1806,12 +1796,12 @@
       <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1876,17 +1866,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1895,12 +1885,12 @@
       <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -1962,17 +1952,17 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1981,12 +1971,12 @@
       <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4" t="s">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -2017,17 +2007,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2036,12 +2026,12 @@
       <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -2072,17 +2062,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2091,12 +2081,12 @@
       <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -2127,17 +2117,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2146,12 +2136,12 @@
       <c r="F16" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -2182,17 +2172,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2201,12 +2191,12 @@
       <c r="F17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4" t="s">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -2237,17 +2227,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2256,12 +2246,12 @@
       <c r="F18" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4" t="s">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -2292,17 +2282,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2311,12 +2301,12 @@
       <c r="F19" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -2347,17 +2337,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2366,12 +2356,12 @@
       <c r="F20" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4" t="s">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -2402,17 +2392,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2421,12 +2411,12 @@
       <c r="F21" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -2457,17 +2447,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2476,12 +2466,12 @@
       <c r="F22" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4" t="s">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -2512,17 +2502,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2531,12 +2521,12 @@
       <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="4" t="s">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -2558,17 +2548,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2577,12 +2567,12 @@
       <c r="F24" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4" t="s">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -2604,17 +2594,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2623,12 +2613,12 @@
       <c r="F25" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="4" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -2650,17 +2640,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2669,12 +2659,12 @@
       <c r="F26" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="4" t="s">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -2696,17 +2686,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2715,12 +2705,12 @@
       <c r="F27" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="4" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -2742,17 +2732,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2761,12 +2751,12 @@
       <c r="F28" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="4" t="s">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -2788,17 +2778,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2807,12 +2797,12 @@
       <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="4" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -2834,17 +2824,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2853,12 +2843,12 @@
       <c r="F30" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4" t="s">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -2880,17 +2870,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2899,12 +2889,12 @@
       <c r="F31" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="4" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -2926,17 +2916,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -2945,12 +2935,12 @@
       <c r="F32" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="4" t="s">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -2977,25 +2967,26 @@
   <hyperlinks>
     <hyperlink ref="H12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{1F91555B-5DAB-40A8-B6D1-AF25284DFF80}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{801D4664-FEA3-45EE-B11F-C406767EEF45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3113,18 +3104,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0894F575-CBD1-4500-A28A-2C2DF44A3F5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EDABB2-065E-4DA3-AF0A-B938AC9E3F4C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EDABB2-065E-4DA3-AF0A-B938AC9E3F4C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0894F575-CBD1-4500-A28A-2C2DF44A3F5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
